--- a/wine.xlsx
+++ b/wine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
